--- a/DATOS/Employees.xlsx
+++ b/DATOS/Employees.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gtrantzas\Desktop\Scripting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\AF-POWER-AUTOMATE-AVANZADO\DATOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1726A2-A855-4A91-A50E-273B5742588F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8168F61-B37C-4164-B0D8-2B7F5744361F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31875" yWindow="2565" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -351,20 +351,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -375,36 +375,112 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>532454</v>
       </c>
       <c r="B2">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>546675</v>
       </c>
       <c r="B3">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>436754</v>
       </c>
       <c r="B4">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>545454</v>
       </c>
       <c r="B5">
         <v>41</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>532454</v>
+      </c>
+      <c r="B6">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>546675</v>
+      </c>
+      <c r="B7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>436754</v>
+      </c>
+      <c r="B8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>545454</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>532454</v>
+      </c>
+      <c r="B10">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>546675</v>
+      </c>
+      <c r="B11">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>436754</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>545454</v>
+      </c>
+      <c r="B13">
+        <v>23321</v>
       </c>
     </row>
   </sheetData>

--- a/DATOS/Employees.xlsx
+++ b/DATOS/Employees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\AF-POWER-AUTOMATE-AVANZADO\DATOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8168F61-B37C-4164-B0D8-2B7F5744361F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8674EA-DB1B-4A3C-86D8-0C03A01B7163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31875" yWindow="2565" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32490" yWindow="2445" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -354,7 +354,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
